--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,53 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1:00-2:00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>做测试</t>
-        </is>
-      </c>
+          <t>8:45-11:30, 15:00-16:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9:45-11:30, 14:15-16:15, 19:00-21:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8:50-9:35</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>张宇线代强化一刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15:40-16:55, 17:20-17:50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,36 @@
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8:30-11:30, 14:45-17:15, 18:00-19:30</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>张宇概率论强化一刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9:45-11:00, 14:00-17:15, 17:45-18:30</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,32 @@
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7:40-11:40, 14:20-17:00, 17:30-18:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10:45-11:30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +562,36 @@
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8:35-10:35, 14:15-16:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>高数武忠祥基础篇</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17:30-19:15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,6 +592,149 @@
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9:30-11:00, 14:30-16:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9:00-11:30, 14:00-17:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14:25-16:55</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8:20-10:25, 10:25-11:05, 17:45-19:45</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9:30-11:30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10:55-11:45, 15:30-18:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9:20-11:30, 14:00-15:45, 15:45-17:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9:15-11:00, 16:30-18:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9:15-10:45, 11:50-12:30, 15:00-17:30</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9:15-11:10, 14:45-18:15</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9:15-11:00, 14:50-17:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,6 +735,97 @@
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9:00-11:45, 14:35-15:45, 16:20-18:10, 21:55-23:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>21:00-22:45</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9:30-10:45, 14:30-14:50</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9:10-10:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9:45-11:00, 14:15-16:30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9:20-12:15, 14:45-17:30, 19:00-19:30, 20:10-22:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20:00-20:40</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,7 +707,11 @@
           <t>9:15-10:45, 11:50-12:30, 15:00-17:30</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>李王武全书提高篇高数</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -811,7 +815,11 @@
           <t>9:20-12:15, 14:45-17:30, 19:00-19:30, 20:10-22:00</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>880高数</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -825,6 +833,295 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9:20-10:30, 15:20-15:50</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>9:30-10:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9:00-10:15</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>14:30-17:15</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>9:45-11:00, 14:55-15:25, 20:45-22:15</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>15:40-17:20, 21:40-22:30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9:45-11:20, 14:55-15:40, 22:20-23:05</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>李王武全书提高篇线代</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9:50-11:05, 15:00-15:50</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>10:05-11:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9:40-12:00, 15:00-17:15</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>880线代</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>22:30-23:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>9:50-11:00, 14:45-16:50, 21:50-23:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9:45-11:05, 14:30-15:40</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>李王武全书提高篇概率</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>8:20-9:40, 10:30-11:40, 20:00-21:40</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>8:30-11:15, 14:45-16:00, 20:00-23:10</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>9:15-10:10</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>880概率</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>17:30-18:00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10:15-11:00, 16:05-16:35</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9:20-10:45, 14:00-15:45, 19:40-21:20</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10:50-11:35</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,6 +1123,19 @@
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>8:15-9:45, 10:20-11:45, 14:10-15:35, 17:20-19:30</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,6 +1136,49 @@
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>17:35-20:40</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9:15-11:45, 13:55-14:35</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>余炳森1000基础篇</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>14:35-15:50, 17:30-19:15</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,6 +1179,32 @@
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>17:30-18:10</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>14:10-17:00, 17:30-18:45</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,6 +1205,45 @@
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>17:35-18:00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>10:20-11:40, 14:10-16:20, 17:45-18:55</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>8:30-11:40, 14:00-15:35, 17:20-20:10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,6 +1244,45 @@
       </c>
       <c r="C59" t="inlineStr"/>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>8:55-9:30, 18:00-20:35</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>8:45-11:35, 13:55-15:45, 17:40-20:05</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>10:10-11:40, 14:30-16:15, 17:50-20:25</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,6 +1283,32 @@
       </c>
       <c r="C62" t="inlineStr"/>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>10:15-11:35, 14:15-16:00, 17:50-18:50</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>15:05-16:55, 19:00-20:45</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,6 +1309,58 @@
       </c>
       <c r="C64" t="inlineStr"/>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>15:00-16:20, 20:00-21:30</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>8:45-11:40, 13:50-15:50</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>15:55-16:45, 18:00-19:25</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>9:00-11:40, 14:00-15:35, 17:45-20:05</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,7 +1294,11 @@
           <t>10:15-11:35, 14:15-16:00, 17:50-18:50</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>余炳森1000提高篇</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1360,6 +1364,101 @@
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>15:05-16:45, 17:35-19:30</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>13:40-16:20, 17:45-19:30</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>14:10-16:55, 17:45-19:15</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>14:20-16:45, 17:45-20:10</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>9:25-11:40, 13:50-15:50</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>15:55-17:00, 17:45-20:35</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>8:30-11:35, 14:00-15:30, 17:45-18:45</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>张宇基础30讲高数</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,6 +1460,32 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>9:55-11:45, 14:00-14:55, 15:15-15:30</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>14:30-16:30, 17:45-18:15</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1486,6 +1486,213 @@
       </c>
       <c r="C77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>17:45-18:45</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>15:00-17:00, 17:45-19:55</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>张宇基础30讲线代</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>13:55-17:10</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8:45-11:40, 15:10-16:00, 17:45-19:30</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>张宇基础30讲概率</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>14:00-16:00, 17:55-19:20</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>9:50-11:40</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9:45-11:10</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>17:15-18:50</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>15:00-16:00, 17:30-19:10, 19:45-20:20</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>14:00-15:50, 17:45-21:10</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>9:50-11:45, 14:20-15:25, 15:50-17:20, 18:15-19:55</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>14:10-17:00, 17:50-20:40</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>14:30-17:00, 18:00-19:40</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>14:20-16:50, 17:30-19:45</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>武忠祥高数强化</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>9:10-11:40, 13:55-15:55, 17:30-21:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1693,6 +1693,183 @@
       </c>
       <c r="C92" t="inlineStr"/>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>8:55-11:45, 18:00-21:20</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>8:50-11:45, 13:55-14:45</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>李永乐线性代数</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>14:45-15:40</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>9:45-11:40, 14:05-15:25, 15:50-17:20, 18:20-18:30</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>王式安概率</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>18:30-20:20</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>17:45-18:30</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>14:25-16:00, 17:30-18:30</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>14:30-15:55, 18:00-19:15</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>8:50-11:40, 14:00-14:55, 14:55-15:50, 18:00-19:45</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>8:00-9:25, 17:35-20:50</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>8:55-9:35, 14:00-15:40</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>8:30-9:40, 14:20-15:30, 15:50-17:30, 18:05-19:00, 19:00-21:30</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>16:15-16:50, 19:00-21:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1870,6 +1870,175 @@
       </c>
       <c r="C105" t="inlineStr"/>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>17:30-19:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>14:30-15:55, 18:00-19:05</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>14:00-17:20, 18:10-18:50</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>7:00-9:40, 14:50-16:00, 18:00-19:05, 20:30-21:00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>14:00-17:20, 18:05-19:05</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>14:00-15:20, 15:55-16:40, 18:10-20:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>14:40-16:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>9:05-10:20, 14:25-17:05, 17:40-19:55</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>8:45-10:30, 14:05-17:00, 19:25-20:00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>14:10-17:25, 18:15-21:45</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>18:05-20:00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>14:55-17:20, 18:00-19:30</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>17:30-18:15</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2039,6 +2039,101 @@
       </c>
       <c r="C118" t="inlineStr"/>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>7:40-9:55</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>14:25-17:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>14:20-17:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>18:30-21:25</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>8:50-9:40, 18:10-20:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>14:00-15:05</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>李正元线性代数</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>15:30-17:20</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2134,6 +2134,377 @@
       </c>
       <c r="C125" t="inlineStr"/>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>9:30-11:30, 16:30-17:30, 20:25-21:45</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>19:45-21:55</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>9:50-11:40, 15:25-16:00, 21:15-21:30</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>10:20-11:45, 14:15-16:10, 18:20-18:45, 19:30-21:25</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>7:50-11:00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>8:10-9:30, 14:45-17:50</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>13:35-17:50, 18:35-21:00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>9:00-9:50, 13:50-17:30</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>李正元概率</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>19:15-20:50</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>14:25-17:10</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>8:30-9:30, 14:10-17:30, 18:00-20:30</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>8:30-9:40, 14:35-15:55, 16:00-16:50, 18:00-19:00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>武忠祥基础高数</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>16:25-18:00, 18:35-20:05</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>8:25-9:30, 14:40-17:50</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>14:30-17:50</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>9:10-9:45, 14:50-15:30</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>杨超线代</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>15:30-16:45, 18:00-20:25</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>14:30-17:00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>11:00-11:20, 14:15-17:05, 17:55-19:35</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>14:10-17:10, 18:05-20:40</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>杨超概率</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>14:15-18:00, 18:55-21:20</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>7:15-9:40, 14:25-17:15, 18:20-20:30</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>14:25-16:10, 16:25-18:00, 18:40-20:30</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>9:10-9:40, 14:35-17:30</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汤家凤高数</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>8:45-11:10, 14:25-16:00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>14:10-17:10, 17:55-20:50</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>10:00-11:05, 16:40-17:20, 18:10-20:00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>14:25-17:00</t>
+          <t>8:45-10:30, 14:25-17:00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -2504,6 +2504,240 @@
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>18:25-21:10</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>13:55-17:05</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>14:25-17:30, 18:50-20:50</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>14:30-17:25</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>14:20-17:15, 18:05-19:50</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>18:55-19:40</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>14:35-17:20, 18:45-20:50</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>10:45-11:25, 14:40-17:25, 18:55-21:05</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>8:30-9:30</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>14:45-17:30, 18:45-19:50</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>16:30-17:25, 19:10-20:00</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>9:40-10:30</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>18:30-20:05</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>14:30-17:00, 18:50-20:30</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>14:45-17:20, 18:40-21:15</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>10:40-11:30, 14:35-17:30, 18:40-21:15</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>10:15-11:25, 14:35-17:25, 18:50-20:05</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>10:15-11:25, 14:30-17:30, 18:45-19:50</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2739,6 +2739,109 @@
       </c>
       <c r="C170" t="inlineStr"/>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>10:15-11:45, 14:15-17:15, 18:00-19:15</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>武忠祥高数二刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>9:45-11:05, 18:15-20:00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>10:30-11:30, 14:35-17:30, 18:50-21:00</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>张宇1000高数</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>10:20-11:30, 16:00-17:25, 19:00-20:35</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>10:40-11:30, 14:35-17:30, 18:45-20:10</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>10:55-11:25, 14:35-17:25, 18:50-20:45</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>660一刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>14:30-17:30</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2842,6 +2842,430 @@
       </c>
       <c r="C177" t="inlineStr"/>
     </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>10:45-11:15</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>15:30-16:10</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>15:40-17:30</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>15:35-17:30</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>20:55-21:35</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>17:20-17:50, 20:40-22:00</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>15:15-18:45, 20:15-20:50</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>考掌一元微积分</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>10:35-11:40, 14:25-17:45</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>8:25-10:10, 15:25-16:50</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>8:45-10:00, 14:40-17:45</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>15:55-17:00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>14:15-17:20</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>10:35-11:25, 13:50-16:30</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>9:10-11:40, 14:50-16:25</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>21:00-21:30</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>9:05-11:20, 15:00-16:00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>21:15-21:30</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>9:05-11:45, 21:25-21:45</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>15:25-17:20</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>16:20-17:35</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>8:10-8:30, 16:05-17:30, 21:10-21:40</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>8:25-11:40, 14:05-17:30, 21:10-21:50</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>9:00-10:25, 17:15-17:50, 20:55-21:00</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>14:10-17:20, 18:50-21:00</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>9:30-11:40</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>9:15-11:15</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>20:50-21:20</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>9:00-11:40, 20:50-21:10</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>8:35-12:00, 21:00-22:05</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>8:45-11:35, 19:20-19:35, 20:00-21:10</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>11:20-12:10, 14:25-15:20, 21:00-22:00</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>考掌微分方程级数</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>14:30-16:50</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2025.xlsx
+++ b/data/xlsx/学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3266,6 +3266,296 @@
       </c>
       <c r="C209" t="inlineStr"/>
     </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>9:50-10:10, 19:10-19:30</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>9:45-11:50, 14:10-14:40, 21:00-21:25</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>8:40-11:40, 20:50-21:45</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>8:30-12:00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>9:30-11:10</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>16:05-17:15, 20:30-21:25</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>21:10-21:30</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>9:10-10:00</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>9:00-11:30, 20:50-21:25</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>10:00-11:30, 20:35-20:55</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>14:00-15:30, 21:15-22:15</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>16:15-17:15, 21:00-21:20</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>11:20-11:45, 19:50-21:30</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>8:45-11:30, 19:50-21:20</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>20:55-21:25</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>8:30-8:55, 14:30-17:30</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>9:15-11:15</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>15:30-16:45</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>15:10-17:10, 20:45-21:20</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>16:15-17:20</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>9:50-11:45, 14:40-16:20</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>9:55-10:30, 14:20-16:00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>考掌+990+李正元139+王式安严选题概统</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
